--- a/Dashboards/RIES.xlsx
+++ b/Dashboards/RIES.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -157,6 +157,21 @@
     <x:t>2,0 (14/7)</x:t>
   </x:si>
   <x:si>
+    <x:t>3,3 (101/31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,0 (14/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,6 (48/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (1/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (37/23)</x:t>
+  </x:si>
+  <x:si>
     <x:t>3,2 (1116/353)</x:t>
   </x:si>
   <x:si>
@@ -187,21 +202,6 @@
     <x:t>2,4 (188/77)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,8 (80/29)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,0 (14/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,6 (48/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (1/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,8 (16/21)</x:t>
-  </x:si>
-  <x:si>
     <x:t>2,1 (465/219)</x:t>
   </x:si>
   <x:si>
@@ -253,16 +253,19 @@
     <x:t>0,8 (8/10)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,3 (108/81)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (39/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (27/31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (42/26)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,3 (21/16)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (66/55)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (39/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (27/31)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -946,10 +949,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>387.200108333331</x:v>
+        <x:v>703.215066666665</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>7873.44733333333</x:v>
+        <x:v>9453.52212499999</x:v>
       </x:c>
       <x:c r="E6" s="16" t="s"/>
       <x:c r="F6" s="16" t="s"/>
@@ -973,7 +976,7 @@
         <x:v>593.869166666667</x:v>
       </x:c>
       <x:c r="R6" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1580.07479166667</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -981,10 +984,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>298.374201923073</x:v>
+        <x:v>410.045067307689</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>37511.1118958331</x:v>
+        <x:v>38962.8331458331</x:v>
       </x:c>
       <x:c r="E7" s="16" t="s"/>
       <x:c r="F7" s="16" t="n">
@@ -1024,7 +1027,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R7" s="16" t="n">
-        <x:v>885.801749999991</x:v>
+        <x:v>2337.52299999999</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1857,7 +1860,7 @@
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
         <x:v>36</x:v>
@@ -1875,84 +1878,84 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I3" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J3" s="19" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="I3" s="19" t="s">
+      <x:c r="K3" s="19" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="J3" s="19" t="s">
+      <x:c r="L3" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M3" s="19" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="N3" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O3" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P3" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q3" s="19" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="K3" s="19" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L3" s="19" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="M3" s="19" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="N3" s="19" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="O3" s="19" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="P3" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q3" s="19" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D4" s="19" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E4" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F4" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G4" s="19" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H4" s="19" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I4" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J4" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="K4" s="19" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D4" s="19" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E4" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F4" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G4" s="19" t="s">
+      <x:c r="L4" s="19" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="H4" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I4" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J4" s="19" t="s">
+      <x:c r="M4" s="19" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="K4" s="19" t="s">
+      <x:c r="N4" s="19" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="L4" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M4" s="19" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="N4" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -2107,7 +2110,7 @@
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
         <x:v>68</x:v>
@@ -2116,90 +2119,90 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
         <x:v>27</x:v>
